--- a/assets/datasets/5.xlsx
+++ b/assets/datasets/5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/Google Drive/Sintesi C3—HATE SPEECH/Phase 02/z-SITO/Dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola\Google Drive\Sintesi C3—HATE SPEECH\Phase 02\z-SITO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E6B97-AD13-1443-AF7C-8762300A9DDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A74D45-20C0-4E9E-A037-A5E4F7338E28}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,14 @@
     <sheet name="Percentage Node F+C" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1046,11 +1054,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1060,25 +1067,30 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF212121"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1090,11 +1102,18 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF474A54"/>
       <name val="&quot;Open Sans&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1151,22 +1170,21 @@
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1175,6 +1193,7 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1503,1485 +1522,1488 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" customWidth="1"/>
+    <col min="3" max="3" width="29.1796875" customWidth="1"/>
+    <col min="4" max="4" width="29.36328125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
+    <col min="9" max="9" width="31.36328125" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>43221</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>43199</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>43256</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>43401</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>43195</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>43152</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>43302</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>43322</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>43212</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <v>41061</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>43130</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>42938</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>43279</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>41540</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>43362</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>43113</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>43171</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4" t="s">
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>43286</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <v>43321</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <v>43374</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J28" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <v>43130</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <v>43201</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="4">
+    <row r="31" spans="1:12" ht="15.5">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="4" t="s">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <v>43224</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <v>43371</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <v>43435</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <v>43322</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <v>43365</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="12">
         <v>43282</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <v>43336</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <v>43194</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <v>43259</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <v>43238</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <v>43188</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="E43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G43" s="4" t="s">
+      <c r="G43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <v>43104</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <v>43114</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <v>43211</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <v>42184</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="F47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <v>43211</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="J49" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="3" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <v>43279</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <v>43286</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3054,1467 +3076,1470 @@
   </sheetPr>
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22.83203125" customWidth="1"/>
-    <col min="5" max="5" width="33.1640625" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="38.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.1796875" customWidth="1"/>
+    <col min="6" max="6" width="39.6328125" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
-    <col min="9" max="9" width="37.5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" customWidth="1"/>
+    <col min="9" max="9" width="37.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" customWidth="1"/>
+    <col min="11" max="11" width="21.6328125" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <v>43319</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>43220</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>43300</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>43179</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>40539</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>43200</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>43258</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>42789</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>42915</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>42961</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>43215</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>43328</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <v>42625</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <v>42705</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <v>42625</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="3" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <v>43147</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <v>43286</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <v>43235</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <v>43199</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="F27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>43279</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="3" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <v>42943</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
+      <c r="E32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <v>43408</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="K32" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="F33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4" t="s">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <v>43163</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="K33" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="3" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <v>42556</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="E37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <v>43287</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
+      <c r="G38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="7">
         <v>43171</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="7">
         <v>43234</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="7">
         <v>43346</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="9" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="12"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="7">
         <v>42902</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="K44" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="H45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="7">
         <v>43117</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="K45" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="4" t="s">
+      <c r="E46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="7">
         <v>43349</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K46" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4" t="s">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="7">
         <v>43286</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="K50" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="7">
         <v>43124</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="K51" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4582,12 +4607,15 @@
   </sheetPr>
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="1" max="1" width="38.81640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
@@ -4599,1318 +4627,1318 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="13">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:2" ht="12.5">
+      <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="13">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:2" ht="12.5">
+      <c r="A53" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="13">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:2" ht="12.5">
+      <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="13">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:2" ht="12.5">
+      <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13">
-      <c r="A56" s="3" t="s">
+      <c r="B55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="12.5">
+      <c r="A56" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="13">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:2" ht="12.5">
+      <c r="A57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="13">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:2" ht="12.5">
+      <c r="A58" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="13">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:2" ht="12.5">
+      <c r="A59" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="13">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:2" ht="12.5">
+      <c r="A60" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="13">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:2" ht="12.5">
+      <c r="A61" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="13">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:2" ht="12.5">
+      <c r="A62" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="13">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:2" ht="12.5">
+      <c r="A63" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="13">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:2" ht="12.5">
+      <c r="A64" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="13">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:2" ht="12.5">
+      <c r="A65" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="13">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:2" ht="12.5">
+      <c r="A66" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="13">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:2" ht="12.5">
+      <c r="A67" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="13">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:2" ht="12.5">
+      <c r="A68" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="13">
-      <c r="A69" s="3" t="s">
+      <c r="B68" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="12.5">
+      <c r="A69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="13">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:2" ht="12.5">
+      <c r="A70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="13">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:2" ht="12.5">
+      <c r="A71" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="13">
-      <c r="A72" s="3" t="s">
+      <c r="B71" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="12.5">
+      <c r="A72" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="13">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:2" ht="12.5">
+      <c r="A73" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="13">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:2" ht="12.5">
+      <c r="A74" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="13">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:2" ht="12.5">
+      <c r="A75" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="13">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:2" ht="12.5">
+      <c r="A76" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="13">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:2" ht="12.5">
+      <c r="A77" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="13">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:2" ht="12.5">
+      <c r="A78" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="13">
-      <c r="A79" s="3" t="s">
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="12.5">
+      <c r="A79" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="13">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="13">
-      <c r="A81" s="3" t="s">
+    <row r="80" spans="1:2" ht="12.5">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="1:2" ht="12.5">
+      <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="13">
-      <c r="A82" s="3" t="s">
+    <row r="82" spans="1:2" ht="12.5">
+      <c r="A82" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="13">
-      <c r="A83" s="3" t="s">
+      <c r="B82" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="12.5">
+      <c r="A83" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="13">
-      <c r="A84" s="3" t="s">
+    <row r="84" spans="1:2" ht="12.5">
+      <c r="A84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="13">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:2" ht="12.5">
+      <c r="A85" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="13">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:2" ht="12.5">
+      <c r="A86" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="13">
-      <c r="A87" s="3" t="s">
+      <c r="B86" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="12.5">
+      <c r="A87" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="13">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="13">
-      <c r="A89" s="3" t="s">
+      <c r="B87" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="12.5">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" ht="12.5">
+      <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="13">
-      <c r="A90" s="3" t="s">
+      <c r="B89" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="12.5">
+      <c r="A90" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="13">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:2" ht="12.5">
+      <c r="A91" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="13">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:2" ht="12.5">
+      <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="13">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:2" ht="12.5">
+      <c r="A93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="13">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:2" ht="12.5">
+      <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="13">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:2" ht="12.5">
+      <c r="A95" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="13">
-      <c r="A96" s="3" t="s">
+      <c r="B95" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="12.5">
+      <c r="A96" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="13">
-      <c r="A97" s="3" t="s">
+      <c r="B96" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="12.5">
+      <c r="A97" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="13">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:2" ht="12.5">
+      <c r="A98" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="13">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:2" ht="12.5">
+      <c r="A99" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="13">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:2" ht="12.5">
+      <c r="A100" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="13">
-      <c r="A101" s="3" t="s">
+      <c r="B100" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="12.5">
+      <c r="A101" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="13">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:2" ht="12.5">
+      <c r="A102" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="13">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:2" ht="12.5">
+      <c r="A103" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="13">
-      <c r="A104" s="3" t="s">
+    <row r="104" spans="1:2" ht="12.5">
+      <c r="A104" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="13">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:2" ht="12.5">
+      <c r="A105" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="13">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:2" ht="12.5">
+      <c r="A106" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="13">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:2" ht="12.5">
+      <c r="A107" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="13">
-      <c r="A108" s="3" t="s">
+    <row r="108" spans="1:2" ht="12.5">
+      <c r="A108" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="13">
-      <c r="A109" s="3" t="s">
+    <row r="109" spans="1:2" ht="12.5">
+      <c r="A109" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="13">
-      <c r="A110" s="3" t="s">
+    <row r="110" spans="1:2" ht="12.5">
+      <c r="A110" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" ht="13">
-      <c r="A111" s="3" t="s">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="1:2" ht="12.5">
+      <c r="A111" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="13">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:2" ht="12.5">
+      <c r="A112" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="13">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:2" ht="12.5">
+      <c r="A113" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="13">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:2" ht="12.5">
+      <c r="A114" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="13">
-      <c r="A115" s="3" t="s">
+    <row r="115" spans="1:2" ht="12.5">
+      <c r="A115" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="13">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:2" ht="12.5">
+      <c r="A116" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="13">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:2" ht="12.5">
+      <c r="A117" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="13">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:2" ht="12.5">
+      <c r="A118" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="13">
-      <c r="A119" s="3" t="s">
+      <c r="B118" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="12.5">
+      <c r="A119" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="13">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:2" ht="12.5">
+      <c r="A120" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="13">
-      <c r="A121" s="3" t="s">
+      <c r="B120" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="12.5">
+      <c r="A121" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="13">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:2" ht="12.5">
+      <c r="A122" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="13">
-      <c r="A123" s="3" t="s">
+      <c r="B122" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="12.5">
+      <c r="A123" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="13">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:2" ht="12.5">
+      <c r="A124" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="13">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:2" ht="12.5">
+      <c r="A125" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="13">
-      <c r="A126" s="3" t="s">
+      <c r="B125" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="12.5">
+      <c r="A126" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="13">
-      <c r="A127" s="3" t="s">
+      <c r="B126" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="12.5">
+      <c r="A127" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="13">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:2" ht="12.5">
+      <c r="A128" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="13">
-      <c r="A129" s="3" t="s">
+    <row r="129" spans="1:2" ht="12.5">
+      <c r="A129" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B129" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="13">
-      <c r="A130" s="3" t="s">
+      <c r="B129" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="12.5">
+      <c r="A130" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="13">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="1:2" ht="13">
-      <c r="A132" s="3" t="s">
+    <row r="131" spans="1:2" ht="12.5">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" ht="12.5">
+      <c r="A132" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="13">
-      <c r="A133" s="3" t="s">
+      <c r="B132" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="12.5">
+      <c r="A133" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="13">
-      <c r="A134" s="3" t="s">
+    <row r="134" spans="1:2" ht="12.5">
+      <c r="A134" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="13">
-      <c r="A135" s="3" t="s">
+      <c r="B134" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="12.5">
+      <c r="A135" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="13">
-      <c r="A136" s="3" t="s">
+    <row r="136" spans="1:2" ht="12.5">
+      <c r="A136" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="13">
-      <c r="A137" s="3" t="s">
+    <row r="137" spans="1:2" ht="12.5">
+      <c r="A137" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="13">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:2" ht="12.5">
+      <c r="A138" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="13">
-      <c r="A139" s="3" t="s">
+      <c r="B138" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="12.5">
+      <c r="A139" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="13">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:2" ht="12.5">
+      <c r="A140" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="13">
-      <c r="A141" s="3" t="s">
+      <c r="B140" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="12.5">
+      <c r="A141" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="13">
-      <c r="A142" s="3" t="s">
+    <row r="142" spans="1:2" ht="12.5">
+      <c r="A142" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="13">
-      <c r="A143" s="3" t="s">
+    <row r="143" spans="1:2" ht="12.5">
+      <c r="A143" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="13">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:2" ht="12.5">
+      <c r="A144" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B144" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="13">
-      <c r="A145" s="3" t="s">
+      <c r="B144" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="12.5">
+      <c r="A145" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="13">
-      <c r="A146" s="3" t="s">
+    <row r="146" spans="1:2" ht="12.5">
+      <c r="A146" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="13">
-      <c r="A147" s="16" t="s">
+    <row r="147" spans="1:2" ht="12.5">
+      <c r="A147" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="1:2" ht="13">
-      <c r="A148" s="3" t="s">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" ht="12.5">
+      <c r="A148" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="13">
-      <c r="A149" s="3" t="s">
+    <row r="149" spans="1:2" ht="12.5">
+      <c r="A149" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="13">
-      <c r="A150" s="3" t="s">
+    <row r="150" spans="1:2" ht="12.5">
+      <c r="A150" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="13">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="1:2" ht="13">
-      <c r="A152" s="3" t="s">
+    <row r="151" spans="1:2" ht="12.5">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" ht="12.5">
+      <c r="A152" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="1:2" ht="13">
-      <c r="A153" s="3" t="s">
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="1:2" ht="12.5">
+      <c r="A153" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="13">
-      <c r="A154" s="3" t="s">
+      <c r="B153" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="12.5">
+      <c r="A154" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="13">
-      <c r="A155" s="3" t="s">
+    <row r="155" spans="1:2" ht="12.5">
+      <c r="A155" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="13">
-      <c r="A156" s="3" t="s">
+    <row r="156" spans="1:2" ht="12.5">
+      <c r="A156" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="2" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="13">
-      <c r="A157" s="3" t="s">
+    <row r="157" spans="1:2" ht="12.5">
+      <c r="A157" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="13">
-      <c r="A158" s="3" t="s">
+      <c r="B157" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="12.5">
+      <c r="A158" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B158" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="13">
-      <c r="A159" s="3" t="s">
+    <row r="159" spans="1:2" ht="12.5">
+      <c r="A159" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="13">
-      <c r="A160" s="3" t="s">
+      <c r="B159" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="12.5">
+      <c r="A160" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="13">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:2" ht="12.5">
+      <c r="A161" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="2" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="13">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:2" ht="12.5">
+      <c r="A162" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="13">
-      <c r="A163" s="3" t="s">
+    <row r="163" spans="1:2" ht="12.5">
+      <c r="A163" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B163" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="13">
-      <c r="A164" s="3" t="s">
+    <row r="164" spans="1:2" ht="12.5">
+      <c r="A164" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B164" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="13">
-      <c r="A165" s="3" t="s">
+    <row r="165" spans="1:2" ht="12.5">
+      <c r="A165" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B165" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="13">
-      <c r="A166" s="3" t="s">
+    <row r="166" spans="1:2" ht="12.5">
+      <c r="A166" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="1:2" ht="13">
-      <c r="A167" s="3" t="s">
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" ht="12.5">
+      <c r="A167" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="13">
-      <c r="A168" s="3" t="s">
+      <c r="B167" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="12.5">
+      <c r="A168" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="13">
-      <c r="A169" s="3" t="s">
+    <row r="169" spans="1:2" ht="12.5">
+      <c r="A169" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="2" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5926,210 +5954,212 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="19" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>0.5</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0.5</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <f t="shared" ref="F2:F8" si="0">SUM(D2,E2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>0.375</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="16">
         <v>0.625</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>0.72699999999999998</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>0.27300000000000002</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>0.3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>0.7</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>6</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0.4</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>0.6</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>21</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>0.38200000000000001</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>0.61799999999999999</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0.5</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>0.5</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="4"/>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
+      <c r="A14" s="3"/>
     </row>
     <row r="17" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="32" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C32" s="4"/>
+      <c r="C32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
